--- a/biology/Médecine/Pododermatite/Pododermatite.xlsx
+++ b/biology/Médecine/Pododermatite/Pododermatite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une pododermatite est chez l'animal une infection bactérienne de la peau généralement située au niveau des ongles, sabots ou coussinets des pattes ou de la plante du pied. cette infection est assez fréquente chez les animaux domestiqués ou proches de l'Homme (chiens, chats, chevaux, hamsters, cochons d'Inde, rats...), en particulier lorsqu'ils sont élevés sur un support agressif comme un grillage.
 De nombreuses espèces de vertébrés comme les oiseaux, les chevaux (sabots) ou les rongeurs peuvent être atteintes d'une pododermatite.
@@ -512,7 +524,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chez les ongulés :
 Pododermatite aseptique (Pododermatitis aseptica acuta, Pododermatitis aseptica chronica),
@@ -551,9 +565,11 @@
           <t>Les oiseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les pododermatites sont communes chez les oiseaux et sont principalement causés par l'obésité, une déficience en vitamine A ou des bactéries comme celles du genre Staphylococcus ou les Mycoplasmes[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les pododermatites sont communes chez les oiseaux et sont principalement causés par l'obésité, une déficience en vitamine A ou des bactéries comme celles du genre Staphylococcus ou les Mycoplasmes.
 </t>
         </is>
       </c>
